--- a/rdm/nginx-data-analysis/员工访问统计_模板 copy - 副本.xlsx
+++ b/rdm/nginx-data-analysis/员工访问统计_模板 copy - 副本.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2743C4DC-59B8-4F59-A02B-FFE8587DD249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79368F31-5846-4BC7-9D01-64F86FA399B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,6 +545,12 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,12 +564,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -907,7 +907,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="4">
@@ -920,15 +920,15 @@
         <v>46</v>
       </c>
       <c r="E2" s="4">
-        <v>21</v>
-      </c>
-      <c r="F2" s="12">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7">
         <f>SUM(E2:E13)/12</f>
-        <v>11.916666666666666</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="4">
         <v>2226</v>
       </c>
@@ -941,10 +941,10 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4">
         <v>2231</v>
       </c>
@@ -955,12 +955,12 @@
         <v>48</v>
       </c>
       <c r="E4" s="4">
-        <v>8</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4">
         <v>1376</v>
       </c>
@@ -973,10 +973,10 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4">
         <v>2232</v>
       </c>
@@ -987,12 +987,12 @@
         <v>50</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4">
         <v>1503</v>
       </c>
@@ -1003,12 +1003,12 @@
         <v>51</v>
       </c>
       <c r="E7" s="4">
-        <v>43</v>
-      </c>
-      <c r="F7" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4">
         <v>1588</v>
       </c>
@@ -1019,12 +1019,12 @@
         <v>52</v>
       </c>
       <c r="E8" s="4">
-        <v>13</v>
-      </c>
-      <c r="F8" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4">
         <v>572</v>
       </c>
@@ -1037,10 +1037,10 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4">
         <v>10263</v>
       </c>
@@ -1051,12 +1051,12 @@
         <v>113</v>
       </c>
       <c r="E10" s="4">
-        <v>19</v>
-      </c>
-      <c r="F10" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4">
         <v>10255</v>
       </c>
@@ -1069,10 +1069,10 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4">
         <v>10256</v>
       </c>
@@ -1085,10 +1085,10 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4">
         <v>10265</v>
       </c>
@@ -1099,12 +1099,12 @@
         <v>53</v>
       </c>
       <c r="E13" s="4">
-        <v>37</v>
-      </c>
-      <c r="F13" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>91</v>
       </c>
       <c r="B14" s="4">
@@ -1119,13 +1119,13 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <f>SUM(E14:E24)/11</f>
-        <v>191.45454545454547</v>
+        <v>202.27272727272728</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4">
         <v>1896</v>
       </c>
@@ -1136,12 +1136,12 @@
         <v>56</v>
       </c>
       <c r="E15" s="4">
-        <v>1373</v>
-      </c>
-      <c r="F15" s="12"/>
+        <v>1544</v>
+      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4">
         <v>1865</v>
       </c>
@@ -1154,10 +1154,10 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4">
         <v>1973</v>
       </c>
@@ -1168,12 +1168,12 @@
         <v>58</v>
       </c>
       <c r="E17" s="4">
-        <v>102</v>
-      </c>
-      <c r="F17" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4">
         <v>1775</v>
       </c>
@@ -1184,12 +1184,12 @@
         <v>59</v>
       </c>
       <c r="E18" s="4">
-        <v>62</v>
-      </c>
-      <c r="F18" s="12"/>
+        <v>185</v>
+      </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4">
         <v>1567</v>
       </c>
@@ -1200,12 +1200,12 @@
         <v>60</v>
       </c>
       <c r="E19" s="4">
-        <v>6</v>
-      </c>
-      <c r="F19" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="4">
         <v>2251</v>
       </c>
@@ -1218,10 +1218,10 @@
       <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="4">
         <v>1963</v>
       </c>
@@ -1234,10 +1234,10 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="4">
         <v>1505</v>
       </c>
@@ -1250,10 +1250,10 @@
       <c r="E22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="4">
         <v>2200</v>
       </c>
@@ -1264,12 +1264,12 @@
         <v>64</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="4">
         <v>1438</v>
       </c>
@@ -1280,12 +1280,12 @@
         <v>65</v>
       </c>
       <c r="E24" s="4">
-        <v>562</v>
-      </c>
-      <c r="F24" s="12"/>
+        <v>478</v>
+      </c>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="4">
@@ -1300,13 +1300,13 @@
       <c r="E25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="7">
         <f>SUM(E25:E37)/13</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="4">
         <v>856</v>
       </c>
@@ -1319,10 +1319,10 @@
       <c r="E26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="12"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="4">
         <v>1883</v>
       </c>
@@ -1335,10 +1335,10 @@
       <c r="E27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="4">
         <v>2140</v>
       </c>
@@ -1351,10 +1351,10 @@
       <c r="E28" s="4">
         <v>0</v>
       </c>
-      <c r="F28" s="12"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="4">
         <v>1248</v>
       </c>
@@ -1365,12 +1365,12 @@
         <v>70</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="4">
         <v>2253</v>
       </c>
@@ -1383,10 +1383,10 @@
       <c r="E30" s="4">
         <v>0</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="4">
         <v>1712</v>
       </c>
@@ -1399,10 +1399,10 @@
       <c r="E31" s="4">
         <v>0</v>
       </c>
-      <c r="F31" s="12"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="4">
         <v>2242</v>
       </c>
@@ -1413,12 +1413,12 @@
         <v>73</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="4">
         <v>2221</v>
       </c>
@@ -1431,10 +1431,10 @@
       <c r="E33" s="4">
         <v>0</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="4">
         <v>2065</v>
       </c>
@@ -1447,10 +1447,10 @@
       <c r="E34" s="4">
         <v>0</v>
       </c>
-      <c r="F34" s="12"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="4">
         <v>1392</v>
       </c>
@@ -1463,10 +1463,10 @@
       <c r="E35" s="4">
         <v>0</v>
       </c>
-      <c r="F35" s="12"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="4">
         <v>10258</v>
       </c>
@@ -1477,12 +1477,12 @@
         <v>120</v>
       </c>
       <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="4">
         <v>10259</v>
       </c>
@@ -1493,12 +1493,12 @@
         <v>122</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B38" s="4">
@@ -1511,15 +1511,15 @@
         <v>76</v>
       </c>
       <c r="E38" s="4">
-        <v>274</v>
-      </c>
-      <c r="F38" s="12">
+        <v>5</v>
+      </c>
+      <c r="F38" s="7">
         <f>SUM(E38:E47)/10</f>
-        <v>893.1</v>
+        <v>427.6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="4">
         <v>1065</v>
       </c>
@@ -1532,10 +1532,10 @@
       <c r="E39" s="4">
         <v>0</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="4">
         <v>1809</v>
       </c>
@@ -1548,10 +1548,10 @@
       <c r="E40" s="4">
         <v>0</v>
       </c>
-      <c r="F40" s="12"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="4">
         <v>1806</v>
       </c>
@@ -1562,12 +1562,12 @@
         <v>79</v>
       </c>
       <c r="E41" s="4">
-        <v>1891</v>
-      </c>
-      <c r="F41" s="12"/>
+        <v>1528</v>
+      </c>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="4">
         <v>1777</v>
       </c>
@@ -1578,12 +1578,12 @@
         <v>80</v>
       </c>
       <c r="E42" s="4">
-        <v>1005</v>
-      </c>
-      <c r="F42" s="12"/>
+        <v>557</v>
+      </c>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="4">
         <v>1281</v>
       </c>
@@ -1596,10 +1596,10 @@
       <c r="E43" s="4">
         <v>0</v>
       </c>
-      <c r="F43" s="12"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="4">
         <v>2217</v>
       </c>
@@ -1612,10 +1612,10 @@
       <c r="E44" s="4">
         <v>0</v>
       </c>
-      <c r="F44" s="12"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="4">
         <v>1927</v>
       </c>
@@ -1626,12 +1626,12 @@
         <v>83</v>
       </c>
       <c r="E45" s="4">
-        <v>5587</v>
-      </c>
-      <c r="F45" s="12"/>
+        <v>1607</v>
+      </c>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="4">
         <v>1974</v>
       </c>
@@ -1642,12 +1642,12 @@
         <v>84</v>
       </c>
       <c r="E46" s="4">
-        <v>173</v>
-      </c>
-      <c r="F46" s="12"/>
+        <v>579</v>
+      </c>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="4">
         <v>1437</v>
       </c>
@@ -1658,12 +1658,12 @@
         <v>85</v>
       </c>
       <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="4">
@@ -1676,15 +1676,15 @@
         <v>86</v>
       </c>
       <c r="E48" s="4">
-        <v>754</v>
-      </c>
-      <c r="F48" s="12">
+        <v>203</v>
+      </c>
+      <c r="F48" s="7">
         <f>SUM(E48:E50)/3</f>
-        <v>621</v>
+        <v>86.333333333333329</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="4">
         <v>1259</v>
       </c>
@@ -1695,12 +1695,12 @@
         <v>87</v>
       </c>
       <c r="E49" s="4">
-        <v>141</v>
-      </c>
-      <c r="F49" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="10"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="4">
         <v>2195</v>
       </c>
@@ -1711,12 +1711,12 @@
         <v>88</v>
       </c>
       <c r="E50" s="4">
-        <v>968</v>
-      </c>
-      <c r="F50" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="12" t="s">
         <v>107</v>
       </c>
       <c r="B51" s="4">
@@ -1731,12 +1731,12 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="4">
         <v>1826</v>
       </c>
@@ -1749,10 +1749,10 @@
       <c r="E52" s="4">
         <v>0</v>
       </c>
-      <c r="F52" s="13"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="4">
         <v>1111</v>
       </c>
@@ -1765,10 +1765,10 @@
       <c r="E53" s="4">
         <v>0</v>
       </c>
-      <c r="F53" s="13"/>
+      <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="11"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="4">
         <v>1083</v>
       </c>
@@ -1781,10 +1781,10 @@
       <c r="E54" s="4">
         <v>0</v>
       </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="11"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="4">
         <v>1020</v>
       </c>
@@ -1797,10 +1797,10 @@
       <c r="E55" s="4">
         <v>0</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="11"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="4">
         <v>1386</v>
       </c>
@@ -1813,32 +1813,26 @@
       <c r="E56" s="4">
         <v>0</v>
       </c>
-      <c r="F56" s="13"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="5">
         <f>SUM(E2:E56)</f>
-        <v>13043</v>
+        <v>6987</v>
       </c>
       <c r="F57" s="6">
         <f>SUM(E2:E56)/57</f>
-        <v>228.82456140350877</v>
+        <v>122.57894736842105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="F2:F13"/>
-    <mergeCell ref="F14:F24"/>
-    <mergeCell ref="F25:F37"/>
-    <mergeCell ref="F38:F47"/>
-    <mergeCell ref="F48:F50"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A24"/>
@@ -1846,6 +1840,12 @@
     <mergeCell ref="A38:A47"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A51:A56"/>
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="F14:F24"/>
+    <mergeCell ref="F25:F37"/>
+    <mergeCell ref="F38:F47"/>
+    <mergeCell ref="F48:F50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rdm/nginx-data-analysis/员工访问统计_模板 copy - 副本.xlsx
+++ b/rdm/nginx-data-analysis/员工访问统计_模板 copy - 副本.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79368F31-5846-4BC7-9D01-64F86FA399B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0464F5-2993-42DB-8413-921118A36C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -539,11 +539,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -872,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -882,7 +885,7 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="7" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -899,7 +902,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -907,7 +910,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="4">
@@ -919,16 +922,16 @@
       <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8">
         <f>SUM(E2:E13)/12</f>
-        <v>4.833333333333333</v>
+        <v>28.833333333333332</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="4">
         <v>2226</v>
       </c>
@@ -938,13 +941,13 @@
       <c r="D3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7"/>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4">
         <v>2231</v>
       </c>
@@ -954,13 +957,13 @@
       <c r="D4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7"/>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4">
         <v>1376</v>
       </c>
@@ -970,13 +973,13 @@
       <c r="D5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="4">
         <v>2232</v>
       </c>
@@ -986,13 +989,13 @@
       <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7"/>
+      <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4">
         <v>1503</v>
       </c>
@@ -1002,13 +1005,13 @@
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="E7" s="3">
+        <v>234</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4">
         <v>1588</v>
       </c>
@@ -1018,13 +1021,13 @@
       <c r="D8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7"/>
+      <c r="E8" s="3">
+        <v>78</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="4">
         <v>572</v>
       </c>
@@ -1034,13 +1037,13 @@
       <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7"/>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4">
         <v>10263</v>
       </c>
@@ -1050,13 +1053,13 @@
       <c r="D10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="4">
-        <v>43</v>
-      </c>
-      <c r="F10" s="7"/>
+      <c r="E10" s="3">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4">
         <v>10255</v>
       </c>
@@ -1066,13 +1069,13 @@
       <c r="D11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7"/>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="4">
         <v>10256</v>
       </c>
@@ -1082,13 +1085,13 @@
       <c r="D12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7"/>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4">
         <v>10265</v>
       </c>
@@ -1098,13 +1101,13 @@
       <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7"/>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B14" s="4">
@@ -1116,16 +1119,16 @@
       <c r="D14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
         <f>SUM(E14:E24)/11</f>
-        <v>202.27272727272728</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="4">
         <v>1896</v>
       </c>
@@ -1135,13 +1138,13 @@
       <c r="D15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="4">
-        <v>1544</v>
-      </c>
-      <c r="F15" s="7"/>
+      <c r="E15" s="3">
+        <v>582</v>
+      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4">
         <v>1865</v>
       </c>
@@ -1151,13 +1154,13 @@
       <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7"/>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4">
         <v>1973</v>
       </c>
@@ -1167,13 +1170,13 @@
       <c r="D17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="4">
-        <v>18</v>
-      </c>
-      <c r="F17" s="7"/>
+      <c r="E17" s="3">
+        <v>340</v>
+      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="4">
         <v>1775</v>
       </c>
@@ -1183,13 +1186,13 @@
       <c r="D18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="4">
-        <v>185</v>
-      </c>
-      <c r="F18" s="7"/>
+      <c r="E18" s="3">
+        <v>691</v>
+      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4">
         <v>1567</v>
       </c>
@@ -1199,13 +1202,13 @@
       <c r="D19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7"/>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="4">
         <v>2251</v>
       </c>
@@ -1215,13 +1218,13 @@
       <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7"/>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="4">
         <v>1963</v>
       </c>
@@ -1231,13 +1234,13 @@
       <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7"/>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4">
         <v>1505</v>
       </c>
@@ -1247,13 +1250,13 @@
       <c r="D22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7"/>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="4">
         <v>2200</v>
       </c>
@@ -1263,13 +1266,13 @@
       <c r="D23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7"/>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="4">
         <v>1438</v>
       </c>
@@ -1279,13 +1282,13 @@
       <c r="D24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="4">
-        <v>478</v>
-      </c>
-      <c r="F24" s="7"/>
+      <c r="E24" s="3">
+        <v>92</v>
+      </c>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="4">
@@ -1297,16 +1300,16 @@
       <c r="D25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
         <f>SUM(E25:E37)/13</f>
-        <v>13</v>
+        <v>99.461538461538467</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="4">
         <v>856</v>
       </c>
@@ -1316,13 +1319,13 @@
       <c r="D26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7"/>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="4">
         <v>1883</v>
       </c>
@@ -1332,13 +1335,13 @@
       <c r="D27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7"/>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="4">
         <v>2140</v>
       </c>
@@ -1348,13 +1351,13 @@
       <c r="D28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7"/>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="4">
         <v>1248</v>
       </c>
@@ -1364,13 +1367,13 @@
       <c r="D29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="4">
-        <v>129</v>
-      </c>
-      <c r="F29" s="7"/>
+      <c r="E29" s="3">
+        <v>146</v>
+      </c>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="4">
         <v>2253</v>
       </c>
@@ -1380,13 +1383,13 @@
       <c r="D30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7"/>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="4">
         <v>1712</v>
       </c>
@@ -1396,13 +1399,13 @@
       <c r="D31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7"/>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="4">
         <v>2242</v>
       </c>
@@ -1412,13 +1415,13 @@
       <c r="D32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="4">
-        <v>4</v>
-      </c>
-      <c r="F32" s="7"/>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="4">
         <v>2221</v>
       </c>
@@ -1428,13 +1431,13 @@
       <c r="D33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7"/>
+      <c r="E33" s="3">
+        <v>1147</v>
+      </c>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="4">
         <v>2065</v>
       </c>
@@ -1444,13 +1447,13 @@
       <c r="D34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7"/>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="4">
         <v>1392</v>
       </c>
@@ -1460,13 +1463,13 @@
       <c r="D35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="7"/>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="4">
         <v>10258</v>
       </c>
@@ -1476,13 +1479,13 @@
       <c r="D36" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="4">
-        <v>14</v>
-      </c>
-      <c r="F36" s="7"/>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="4">
         <v>10259</v>
       </c>
@@ -1492,13 +1495,13 @@
       <c r="D37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="4">
-        <v>22</v>
-      </c>
-      <c r="F37" s="7"/>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B38" s="4">
@@ -1510,16 +1513,16 @@
       <c r="D38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="4">
-        <v>5</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="E38" s="3">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8">
         <f>SUM(E38:E47)/10</f>
-        <v>427.6</v>
+        <v>109.9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="4">
         <v>1065</v>
       </c>
@@ -1529,13 +1532,13 @@
       <c r="D39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="7"/>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="4">
         <v>1809</v>
       </c>
@@ -1545,13 +1548,13 @@
       <c r="D40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7"/>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="4">
         <v>1806</v>
       </c>
@@ -1561,13 +1564,13 @@
       <c r="D41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="4">
-        <v>1528</v>
-      </c>
-      <c r="F41" s="7"/>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="4">
         <v>1777</v>
       </c>
@@ -1577,13 +1580,13 @@
       <c r="D42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="4">
-        <v>557</v>
-      </c>
-      <c r="F42" s="7"/>
+      <c r="E42" s="3">
+        <v>623</v>
+      </c>
+      <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="4">
         <v>1281</v>
       </c>
@@ -1593,13 +1596,13 @@
       <c r="D43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7"/>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="4">
         <v>2217</v>
       </c>
@@ -1609,13 +1612,13 @@
       <c r="D44" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7"/>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="4">
         <v>1927</v>
       </c>
@@ -1625,13 +1628,13 @@
       <c r="D45" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="4">
-        <v>1607</v>
-      </c>
-      <c r="F45" s="7"/>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="4">
         <v>1974</v>
       </c>
@@ -1641,13 +1644,13 @@
       <c r="D46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="4">
-        <v>579</v>
-      </c>
-      <c r="F46" s="7"/>
+      <c r="E46" s="3">
+        <v>468</v>
+      </c>
+      <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="4">
         <v>1437</v>
       </c>
@@ -1657,13 +1660,13 @@
       <c r="D47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="7"/>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="4">
@@ -1675,16 +1678,16 @@
       <c r="D48" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="4">
-        <v>203</v>
-      </c>
-      <c r="F48" s="7">
+      <c r="E48" s="3">
+        <v>651</v>
+      </c>
+      <c r="F48" s="8">
         <f>SUM(E48:E50)/3</f>
-        <v>86.333333333333329</v>
+        <v>687.33333333333337</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="12"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="4">
         <v>1259</v>
       </c>
@@ -1694,13 +1697,13 @@
       <c r="D49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="4">
-        <v>56</v>
-      </c>
-      <c r="F49" s="7"/>
+      <c r="E49" s="3">
+        <v>913</v>
+      </c>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="4">
         <v>2195</v>
       </c>
@@ -1710,13 +1713,13 @@
       <c r="D50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="7"/>
+      <c r="E50" s="3">
+        <v>498</v>
+      </c>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B51" s="4">
@@ -1728,15 +1731,15 @@
       <c r="D51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="4">
         <v>1826</v>
       </c>
@@ -1746,13 +1749,13 @@
       <c r="D52" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8"/>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="13"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="4">
         <v>1111</v>
       </c>
@@ -1762,13 +1765,13 @@
       <c r="D53" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8"/>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="13"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="4">
         <v>1083</v>
       </c>
@@ -1778,13 +1781,13 @@
       <c r="D54" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8"/>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="13"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="4">
         <v>1020</v>
       </c>
@@ -1794,13 +1797,13 @@
       <c r="D55" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8"/>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="13"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="4">
         <v>1386</v>
       </c>
@@ -1810,25 +1813,25 @@
       <c r="D56" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8"/>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="5">
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="6">
         <f>SUM(E2:E56)</f>
-        <v>6987</v>
-      </c>
-      <c r="F57" s="6">
+        <v>6505</v>
+      </c>
+      <c r="F57" s="5">
         <f>SUM(E2:E56)/57</f>
-        <v>122.57894736842105</v>
+        <v>114.12280701754386</v>
       </c>
     </row>
   </sheetData>
@@ -1850,5 +1853,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A38:F47" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/rdm/nginx-data-analysis/员工访问统计_模板 copy - 副本.xlsx
+++ b/rdm/nginx-data-analysis/员工访问统计_模板 copy - 副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\nginx-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0464F5-2993-42DB-8413-921118A36C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D3BF3-4A0F-4991-96FA-F6557D36AE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,12 +548,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,6 +561,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -910,7 +910,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="4">
@@ -922,16 +922,16 @@
       <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
         <f>SUM(E2:E13)/12</f>
-        <v>28.833333333333332</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4">
         <v>2226</v>
       </c>
@@ -941,13 +941,13 @@
       <c r="D3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8"/>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4">
         <v>2231</v>
       </c>
@@ -957,13 +957,13 @@
       <c r="D4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8"/>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4">
         <v>1376</v>
       </c>
@@ -973,13 +973,13 @@
       <c r="D5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8"/>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4">
         <v>2232</v>
       </c>
@@ -989,13 +989,13 @@
       <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="8"/>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4">
         <v>1503</v>
       </c>
@@ -1005,13 +1005,13 @@
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="3">
-        <v>234</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="E7" s="4">
+        <v>113</v>
+      </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4">
         <v>1588</v>
       </c>
@@ -1021,13 +1021,13 @@
       <c r="D8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3">
-        <v>78</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="E8" s="4">
+        <v>310</v>
+      </c>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4">
         <v>572</v>
       </c>
@@ -1037,13 +1037,13 @@
       <c r="D9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="4">
         <v>10263</v>
       </c>
@@ -1053,13 +1053,13 @@
       <c r="D10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="3">
-        <v>25</v>
-      </c>
-      <c r="F10" s="8"/>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4">
         <v>10255</v>
       </c>
@@ -1069,13 +1069,13 @@
       <c r="D11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4">
         <v>10256</v>
       </c>
@@ -1085,13 +1085,13 @@
       <c r="D12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4">
         <v>10265</v>
       </c>
@@ -1101,13 +1101,13 @@
       <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B14" s="4">
@@ -1119,16 +1119,16 @@
       <c r="D14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
         <f>SUM(E14:E24)/11</f>
-        <v>155</v>
+        <v>261.27272727272725</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="4">
         <v>1896</v>
       </c>
@@ -1138,13 +1138,13 @@
       <c r="D15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="3">
-        <v>582</v>
-      </c>
-      <c r="F15" s="8"/>
+      <c r="E15" s="4">
+        <v>1161</v>
+      </c>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4">
         <v>1865</v>
       </c>
@@ -1154,13 +1154,13 @@
       <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4">
         <v>1973</v>
       </c>
@@ -1170,13 +1170,13 @@
       <c r="D17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="3">
-        <v>340</v>
-      </c>
-      <c r="F17" s="8"/>
+      <c r="E17" s="4">
+        <v>563</v>
+      </c>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="4">
         <v>1775</v>
       </c>
@@ -1186,13 +1186,13 @@
       <c r="D18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="3">
-        <v>691</v>
-      </c>
-      <c r="F18" s="8"/>
+      <c r="E18" s="4">
+        <v>387</v>
+      </c>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="4">
         <v>1567</v>
       </c>
@@ -1202,13 +1202,13 @@
       <c r="D19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8"/>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="4">
         <v>2251</v>
       </c>
@@ -1218,13 +1218,13 @@
       <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8"/>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="4">
         <v>1963</v>
       </c>
@@ -1234,13 +1234,13 @@
       <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8"/>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="4">
         <v>1505</v>
       </c>
@@ -1250,13 +1250,13 @@
       <c r="D22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="4">
         <v>2200</v>
       </c>
@@ -1266,13 +1266,13 @@
       <c r="D23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8"/>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="4">
         <v>1438</v>
       </c>
@@ -1282,13 +1282,13 @@
       <c r="D24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="3">
-        <v>92</v>
-      </c>
-      <c r="F24" s="8"/>
+      <c r="E24" s="4">
+        <v>763</v>
+      </c>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="4">
@@ -1300,16 +1300,16 @@
       <c r="D25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
         <f>SUM(E25:E37)/13</f>
-        <v>99.461538461538467</v>
+        <v>13.23076923076923</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="4">
         <v>856</v>
       </c>
@@ -1319,13 +1319,13 @@
       <c r="D26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8"/>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="4">
         <v>1883</v>
       </c>
@@ -1335,13 +1335,13 @@
       <c r="D27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8"/>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="4">
         <v>2140</v>
       </c>
@@ -1351,13 +1351,13 @@
       <c r="D28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8"/>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="4">
         <v>1248</v>
       </c>
@@ -1367,13 +1367,13 @@
       <c r="D29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="3">
-        <v>146</v>
-      </c>
-      <c r="F29" s="8"/>
+      <c r="E29" s="4">
+        <v>172</v>
+      </c>
+      <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="4">
         <v>2253</v>
       </c>
@@ -1383,13 +1383,13 @@
       <c r="D30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8"/>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="4">
         <v>1712</v>
       </c>
@@ -1399,13 +1399,13 @@
       <c r="D31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8"/>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="4">
         <v>2242</v>
       </c>
@@ -1415,13 +1415,13 @@
       <c r="D32" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8"/>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="4">
         <v>2221</v>
       </c>
@@ -1431,13 +1431,13 @@
       <c r="D33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="3">
-        <v>1147</v>
-      </c>
-      <c r="F33" s="8"/>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="4">
         <v>2065</v>
       </c>
@@ -1447,13 +1447,13 @@
       <c r="D34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8"/>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="4">
         <v>1392</v>
       </c>
@@ -1463,13 +1463,13 @@
       <c r="D35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8"/>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="4">
         <v>10258</v>
       </c>
@@ -1479,13 +1479,13 @@
       <c r="D36" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8"/>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="4">
         <v>10259</v>
       </c>
@@ -1495,13 +1495,13 @@
       <c r="D37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8"/>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
       <c r="B38" s="4">
@@ -1513,16 +1513,16 @@
       <c r="D38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="3">
-        <v>8</v>
-      </c>
-      <c r="F38" s="8">
+      <c r="E38" s="4">
+        <v>9</v>
+      </c>
+      <c r="F38" s="13">
         <f>SUM(E38:E47)/10</f>
-        <v>109.9</v>
+        <v>186.9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="13"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="4">
         <v>1065</v>
       </c>
@@ -1532,13 +1532,13 @@
       <c r="D39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8"/>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="4">
         <v>1809</v>
       </c>
@@ -1548,13 +1548,13 @@
       <c r="D40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8"/>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="4">
         <v>1806</v>
       </c>
@@ -1564,13 +1564,13 @@
       <c r="D41" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8"/>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="13"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="4">
         <v>1777</v>
       </c>
@@ -1580,13 +1580,13 @@
       <c r="D42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="3">
-        <v>623</v>
-      </c>
-      <c r="F42" s="8"/>
+      <c r="E42" s="4">
+        <v>762</v>
+      </c>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="4">
         <v>1281</v>
       </c>
@@ -1596,13 +1596,13 @@
       <c r="D43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8"/>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="4">
         <v>2217</v>
       </c>
@@ -1612,13 +1612,13 @@
       <c r="D44" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8"/>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="13"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="4">
         <v>1927</v>
       </c>
@@ -1628,13 +1628,13 @@
       <c r="D45" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8"/>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="4">
         <v>1974</v>
       </c>
@@ -1644,13 +1644,13 @@
       <c r="D46" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="3">
-        <v>468</v>
-      </c>
-      <c r="F46" s="8"/>
+      <c r="E46" s="4">
+        <v>1098</v>
+      </c>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="4">
         <v>1437</v>
       </c>
@@ -1660,13 +1660,13 @@
       <c r="D47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8"/>
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="4">
@@ -1678,16 +1678,16 @@
       <c r="D48" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="3">
-        <v>651</v>
-      </c>
-      <c r="F48" s="8">
+      <c r="E48" s="4">
+        <v>149</v>
+      </c>
+      <c r="F48" s="13">
         <f>SUM(E48:E50)/3</f>
-        <v>687.33333333333337</v>
+        <v>464.66666666666669</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="4">
         <v>1259</v>
       </c>
@@ -1697,13 +1697,13 @@
       <c r="D49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="3">
-        <v>913</v>
-      </c>
-      <c r="F49" s="8"/>
+      <c r="E49" s="4">
+        <v>323</v>
+      </c>
+      <c r="F49" s="13"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="4">
         <v>2195</v>
       </c>
@@ -1713,13 +1713,13 @@
       <c r="D50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="3">
-        <v>498</v>
-      </c>
-      <c r="F50" s="8"/>
+      <c r="E50" s="4">
+        <v>922</v>
+      </c>
+      <c r="F50" s="13"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B51" s="4">
@@ -1731,15 +1731,15 @@
       <c r="D51" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="14"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="4">
         <v>1826</v>
       </c>
@@ -1749,13 +1749,13 @@
       <c r="D52" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="9"/>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="14"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="4">
         <v>1111</v>
       </c>
@@ -1765,13 +1765,13 @@
       <c r="D53" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="9"/>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="14"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="4">
         <v>1083</v>
       </c>
@@ -1781,13 +1781,13 @@
       <c r="D54" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9"/>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="4">
         <v>1020</v>
       </c>
@@ -1797,13 +1797,13 @@
       <c r="D55" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="9"/>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="14"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="4">
         <v>1386</v>
       </c>
@@ -1813,29 +1813,35 @@
       <c r="D56" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="9"/>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="12"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="6">
         <f>SUM(E2:E56)</f>
-        <v>6505</v>
+        <v>6735</v>
       </c>
       <c r="F57" s="5">
         <f>SUM(E2:E56)/57</f>
-        <v>114.12280701754386</v>
+        <v>118.15789473684211</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F51:F56"/>
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="F14:F24"/>
+    <mergeCell ref="F25:F37"/>
+    <mergeCell ref="F38:F47"/>
+    <mergeCell ref="F48:F50"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A24"/>
@@ -1843,18 +1849,12 @@
     <mergeCell ref="A38:A47"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A51:A56"/>
-    <mergeCell ref="F51:F56"/>
-    <mergeCell ref="F2:F13"/>
-    <mergeCell ref="F14:F24"/>
-    <mergeCell ref="F25:F37"/>
-    <mergeCell ref="F38:F47"/>
-    <mergeCell ref="F48:F50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A38:F47" formulaRange="1"/>
+    <ignoredError sqref="A38:D47 F38:F47" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>